--- a/PQ_Challenge_174.xlsx
+++ b/PQ_Challenge_174.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2878933-EDE4-45D5-8BCE-2411D76503BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A977BF45-738D-4893-8E3F-F10BF08CD7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00;\-0.00;0.00;@"/>
+    <numFmt numFmtId="164" formatCode="0.00;\-0.00;0.00;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -288,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -316,7 +316,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,7 +363,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18169890" y="457200"/>
+          <a:off x="18368010" y="457200"/>
           <a:ext cx="6168588" cy="10985500"/>
           <a:chOff x="209550" y="0"/>
           <a:chExt cx="6296858" cy="11061700"/>
@@ -880,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,7 +895,7 @@
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -1744,8 +1745,1319 @@
         <v>386.69</v>
       </c>
     </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F24" s="13" t="str" cm="1">
+        <f t="array" aca="1" ref="F24:J43" ca="1">_xlfn.VSTACK({"Emp","From Date","To Date","Monthly Sales","Running Total"},_xlfn.DROP(_xlfn.REDUCE(0,A2:A5,
+_xlfn.LAMBDA(_xlpm.a,_xlpm.i,_xlfn.VSTACK(_xlpm.a,
+_xlfn.LET(_xlpm.z,_xlpm.i,
+_xlpm.s,OFFSET(_xlpm.z,0,1),
+_xlpm.e,OFFSET(_xlpm.z,0,2),
+_xlpm.p,OFFSET(_xlpm.z,0,3),
+_xlpm.dd,DATEDIF(EOMONTH(_xlpm.s,-1)+1,EOMONTH(_xlpm.e,0),"m")+1,
+_xlpm.cntr, _xlfn.SEQUENCE(_xlpm.dd,1,0,1),
+_xlpm.name,_xlfn.SCAN("",_xlpm.cntr,_xlfn.LAMBDA(_xlpm.mm,_xlpm.nn,_xlpm.i)),
+_xlpm.ms, _xlfn.BYROW(_xlpm.cntr, _xlfn.LAMBDA(_xlpm.q,
+                       IF(_xlpm.q=0,_xlpm.s,EOMONTH(_xlpm.s,_xlpm.q-1)+1))),
+_xlpm.me, _xlfn.BYROW(_xlpm.cntr,_xlfn.LAMBDA(_xlpm.qq,IF(_xlpm.e&gt;EOMONTH(_xlpm.s,_xlpm.qq),EOMONTH(_xlpm.s,_xlpm.qq),_xlpm.e))),
+_xlpm.tmp, _xlfn.HSTACK(_xlpm.ms,_xlpm.me),
+_xlpm.px, _xlfn.BYROW(_xlpm.tmp,_xlfn.LAMBDA(_xlpm.aa,_xlfn.LET(_xlpm.ss,INDEX(_xlpm.aa,1),_xlpm.ee,INDEX(_xlpm.aa,2),_xlpm.eee,DATEDIF(_xlpm.s,_xlpm.e,"d"),(_xlpm.ee-_xlpm.ss+1)/(1+_xlpm.eee)*_xlpm.p))),
+_xlpm.ps, _xlfn.SCAN(0,_xlpm.px,_xlfn.LAMBDA(_xlpm.a,_xlpm.i,_xlpm.a+_xlpm.i)),
+_xlfn.HSTACK(_xlpm.name,_xlpm.tmp,ROUND(_xlpm.px,2),ROUND(_xlpm.ps,2))
+)))),1))</f>
+        <v>Emp</v>
+      </c>
+      <c r="G24" s="14" t="str">
+        <f ca="1"/>
+        <v>From Date</v>
+      </c>
+      <c r="H24" s="20" t="str">
+        <f ca="1"/>
+        <v>To Date</v>
+      </c>
+      <c r="I24" s="14" t="str">
+        <f ca="1"/>
+        <v>Monthly Sales</v>
+      </c>
+      <c r="J24" s="15" t="str">
+        <f ca="1"/>
+        <v>Running Total</v>
+      </c>
+      <c r="N24" t="b" cm="1">
+        <f t="array" aca="1" ref="N24:R43" ca="1">F1:J20=F24:J43</f>
+        <v>1</v>
+      </c>
+      <c r="O24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R24" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F25" s="16" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="G25" s="21">
+        <f ca="1"/>
+        <v>44929</v>
+      </c>
+      <c r="H25" s="21">
+        <f ca="1"/>
+        <v>44957</v>
+      </c>
+      <c r="I25" s="22">
+        <f ca="1"/>
+        <v>407.02</v>
+      </c>
+      <c r="J25" s="23">
+        <f ca="1"/>
+        <v>407.02</v>
+      </c>
+      <c r="N25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R25" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F26" s="16" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="G26" s="21">
+        <f ca="1"/>
+        <v>44958</v>
+      </c>
+      <c r="H26" s="21">
+        <f ca="1"/>
+        <v>44985</v>
+      </c>
+      <c r="I26" s="22">
+        <f ca="1"/>
+        <v>392.98</v>
+      </c>
+      <c r="J26" s="23">
+        <f ca="1"/>
+        <v>800</v>
+      </c>
+      <c r="N26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R26" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F27" s="16" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="G27" s="21">
+        <f ca="1"/>
+        <v>44941</v>
+      </c>
+      <c r="H27" s="21">
+        <f ca="1"/>
+        <v>44957</v>
+      </c>
+      <c r="I27" s="22">
+        <f ca="1"/>
+        <v>121.13</v>
+      </c>
+      <c r="J27" s="23">
+        <f ca="1"/>
+        <v>121.13</v>
+      </c>
+      <c r="N27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R27" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
+      <c r="F28" s="16" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="G28" s="21">
+        <f ca="1"/>
+        <v>44958</v>
+      </c>
+      <c r="H28" s="21">
+        <f ca="1"/>
+        <v>44985</v>
+      </c>
+      <c r="I28" s="22">
+        <f ca="1"/>
+        <v>199.5</v>
+      </c>
+      <c r="J28" s="23">
+        <f ca="1"/>
+        <v>320.63</v>
+      </c>
+      <c r="N28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R28" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F29" s="16" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="G29" s="21">
+        <f ca="1"/>
+        <v>44986</v>
+      </c>
+      <c r="H29" s="21">
+        <f ca="1"/>
+        <v>45016</v>
+      </c>
+      <c r="I29" s="22">
+        <f ca="1"/>
+        <v>220.88</v>
+      </c>
+      <c r="J29" s="23">
+        <f ca="1"/>
+        <v>541.5</v>
+      </c>
+      <c r="N29" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O29" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q29" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R29" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F30" s="16" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="G30" s="21">
+        <f ca="1"/>
+        <v>45017</v>
+      </c>
+      <c r="H30" s="21">
+        <f ca="1"/>
+        <v>45036</v>
+      </c>
+      <c r="I30" s="22">
+        <f ca="1"/>
+        <v>142.5</v>
+      </c>
+      <c r="J30" s="23">
+        <f ca="1"/>
+        <v>684</v>
+      </c>
+      <c r="N30" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O30" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q30" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R30" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F31" s="16" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="G31" s="21">
+        <f ca="1"/>
+        <v>44960</v>
+      </c>
+      <c r="H31" s="21">
+        <f ca="1"/>
+        <v>44985</v>
+      </c>
+      <c r="I31" s="22">
+        <f ca="1"/>
+        <v>197.29</v>
+      </c>
+      <c r="J31" s="23">
+        <f ca="1"/>
+        <v>197.29</v>
+      </c>
+      <c r="N31" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O31" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q31" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R31" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="F32" s="16" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="G32" s="21">
+        <f ca="1"/>
+        <v>44986</v>
+      </c>
+      <c r="H32" s="21">
+        <f ca="1"/>
+        <v>45016</v>
+      </c>
+      <c r="I32" s="22">
+        <f ca="1"/>
+        <v>235.24</v>
+      </c>
+      <c r="J32" s="23">
+        <f ca="1"/>
+        <v>432.53</v>
+      </c>
+      <c r="N32" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O32" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q32" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R32" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F33" s="16" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="G33" s="21">
+        <f ca="1"/>
+        <v>45017</v>
+      </c>
+      <c r="H33" s="21">
+        <f ca="1"/>
+        <v>45046</v>
+      </c>
+      <c r="I33" s="22">
+        <f ca="1"/>
+        <v>227.65</v>
+      </c>
+      <c r="J33" s="23">
+        <f ca="1"/>
+        <v>660.18</v>
+      </c>
+      <c r="N33" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O33" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q33" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R33" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F34" s="16" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="G34" s="21">
+        <f ca="1"/>
+        <v>45047</v>
+      </c>
+      <c r="H34" s="21">
+        <f ca="1"/>
+        <v>45077</v>
+      </c>
+      <c r="I34" s="22">
+        <f ca="1"/>
+        <v>235.24</v>
+      </c>
+      <c r="J34" s="23">
+        <f ca="1"/>
+        <v>895.41</v>
+      </c>
+      <c r="N34" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O34" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q34" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R34" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F35" s="16" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="G35" s="21">
+        <f ca="1"/>
+        <v>45078</v>
+      </c>
+      <c r="H35" s="21">
+        <f ca="1"/>
+        <v>45078</v>
+      </c>
+      <c r="I35" s="22">
+        <f ca="1"/>
+        <v>7.59</v>
+      </c>
+      <c r="J35" s="23">
+        <f ca="1"/>
+        <v>903</v>
+      </c>
+      <c r="N35" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O35" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q35" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R35" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F36" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G36" s="21">
+        <f ca="1"/>
+        <v>45167</v>
+      </c>
+      <c r="H36" s="21">
+        <f ca="1"/>
+        <v>45169</v>
+      </c>
+      <c r="I36" s="22">
+        <f ca="1"/>
+        <v>16.11</v>
+      </c>
+      <c r="J36" s="23">
+        <f ca="1"/>
+        <v>16.11</v>
+      </c>
+      <c r="N36" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O36" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P36" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q36" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R36" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F37" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G37" s="21">
+        <f ca="1"/>
+        <v>45170</v>
+      </c>
+      <c r="H37" s="21">
+        <f ca="1"/>
+        <v>45199</v>
+      </c>
+      <c r="I37" s="22">
+        <f ca="1"/>
+        <v>161.12</v>
+      </c>
+      <c r="J37" s="23">
+        <f ca="1"/>
+        <v>177.23</v>
+      </c>
+      <c r="N37" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O37" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P37" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q37" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R37" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F38" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G38" s="21">
+        <f ca="1"/>
+        <v>45200</v>
+      </c>
+      <c r="H38" s="21">
+        <f ca="1"/>
+        <v>45230</v>
+      </c>
+      <c r="I38" s="22">
+        <f ca="1"/>
+        <v>166.49</v>
+      </c>
+      <c r="J38" s="23">
+        <f ca="1"/>
+        <v>343.72</v>
+      </c>
+      <c r="N38" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O38" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q38" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R38" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F39" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G39" s="21">
+        <f ca="1"/>
+        <v>45231</v>
+      </c>
+      <c r="H39" s="21">
+        <f ca="1"/>
+        <v>45260</v>
+      </c>
+      <c r="I39" s="22">
+        <f ca="1"/>
+        <v>161.12</v>
+      </c>
+      <c r="J39" s="23">
+        <f ca="1"/>
+        <v>504.83</v>
+      </c>
+      <c r="N39" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O39" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P39" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q39" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R39" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F40" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G40" s="21">
+        <f ca="1"/>
+        <v>45261</v>
+      </c>
+      <c r="H40" s="21">
+        <f ca="1"/>
+        <v>45291</v>
+      </c>
+      <c r="I40" s="22">
+        <f ca="1"/>
+        <v>166.49</v>
+      </c>
+      <c r="J40" s="23">
+        <f ca="1"/>
+        <v>671.32</v>
+      </c>
+      <c r="N40" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O40" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P40" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q40" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R40" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F41" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G41" s="21">
+        <f ca="1"/>
+        <v>45292</v>
+      </c>
+      <c r="H41" s="21">
+        <f ca="1"/>
+        <v>45322</v>
+      </c>
+      <c r="I41" s="22">
+        <f ca="1"/>
+        <v>166.49</v>
+      </c>
+      <c r="J41" s="23">
+        <f ca="1"/>
+        <v>837.81</v>
+      </c>
+      <c r="N41" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O41" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P41" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q41" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R41" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F42" s="16" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G42" s="21">
+        <f ca="1"/>
+        <v>45323</v>
+      </c>
+      <c r="H42" s="21">
+        <f ca="1"/>
+        <v>45351</v>
+      </c>
+      <c r="I42" s="22">
+        <f ca="1"/>
+        <v>155.75</v>
+      </c>
+      <c r="J42" s="23">
+        <f ca="1"/>
+        <v>993.55</v>
+      </c>
+      <c r="N42" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O42" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P42" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q42" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R42" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F43" s="18" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G43" s="24">
+        <f ca="1"/>
+        <v>45352</v>
+      </c>
+      <c r="H43" s="24">
+        <f ca="1"/>
+        <v>45363</v>
+      </c>
+      <c r="I43" s="28">
+        <f ca="1"/>
+        <v>64.45</v>
+      </c>
+      <c r="J43" s="25">
+        <f ca="1"/>
+        <v>1058</v>
+      </c>
+      <c r="N43" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="O43" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="P43" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" t="b">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="R43" t="b">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F48" t="str" cm="1">
+        <f t="array" aca="1" ref="F48:J67" ca="1">_xlfn.VSTACK({"Emp","From Date","To Date","Monthly Sales","Running Total"},
+_xlfn.DROP(_xlfn.REDUCE(0,A2:A5,
+_xlfn.LAMBDA(_xlpm.a,_xlpm.i,_xlfn.VSTACK(_xlpm.a,
+_xlfn.LET(_xlpm.z,_xlpm.i,
+_xlpm.s,OFFSET(_xlpm.z,0,1),
+_xlpm.e,OFFSET(_xlpm.z,0,2),
+_xlpm.p,OFFSET(_xlpm.z,0,3),
+_xlpm.dd,DATEDIF(EOMONTH(_xlpm.s,-1)+1,EOMONTH(_xlpm.e,0),"m")+1,
+_xlpm.cntr, _xlfn.SEQUENCE(_xlpm.dd,1,0,1),
+_xlpm.name,_xlfn.SCAN("",_xlpm.cntr,_xlfn.LAMBDA(_xlpm.mm,_xlpm.nn,_xlpm.i)),
+_xlpm.ms, _xlfn.BYROW(_xlpm.cntr, _xlfn.LAMBDA(_xlpm.q,
+                       IF(_xlpm.q=0,_xlpm.s,EOMONTH(_xlpm.s,_xlpm.q-1)+1))),
+_xlpm.me, _xlfn.BYROW(_xlpm.cntr,_xlfn.LAMBDA(_xlpm.qq,IF(_xlpm.e&gt;EOMONTH(_xlpm.s,_xlpm.qq),EOMONTH(_xlpm.s,_xlpm.qq),_xlpm.e))),
+_xlpm.tmp, _xlfn.HSTACK(_xlpm.ms,_xlpm.me),
+_xlpm.px, _xlfn.BYROW(_xlpm.tmp,_xlfn.LAMBDA(_xlpm.aa,_xlfn.LET(_xlpm.ss,INDEX(_xlpm.aa,1),_xlpm.ee,INDEX(_xlpm.aa,2),_xlpm.eee,DATEDIF(_xlpm.s,_xlpm.e,"d"),(_xlpm.ee-_xlpm.ss+1)/(1+_xlpm.eee)*_xlpm.p))),
+_xlpm.ps, _xlfn.SCAN(0,_xlpm.px,_xlfn.LAMBDA(_xlpm.a,_xlpm.i,_xlpm.a+_xlpm.i)),
+_xlfn.HSTACK(_xlpm.name,_xlpm.tmp,ROUND(_xlpm.px,2),ROUND(_xlpm.ps,2))
+)))),1))</f>
+        <v>Emp</v>
+      </c>
+      <c r="G48" t="str">
+        <f ca="1"/>
+        <v>From Date</v>
+      </c>
+      <c r="H48" t="str">
+        <f ca="1"/>
+        <v>To Date</v>
+      </c>
+      <c r="I48" t="str">
+        <f ca="1"/>
+        <v>Monthly Sales</v>
+      </c>
+      <c r="J48" t="str">
+        <f ca="1"/>
+        <v>Running Total</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F49" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="G49">
+        <f ca="1"/>
+        <v>44929</v>
+      </c>
+      <c r="H49">
+        <f ca="1"/>
+        <v>44957</v>
+      </c>
+      <c r="I49">
+        <f ca="1"/>
+        <v>407.02</v>
+      </c>
+      <c r="J49">
+        <f ca="1"/>
+        <v>407.02</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F50" t="str">
+        <f ca="1"/>
+        <v>A</v>
+      </c>
+      <c r="G50">
+        <f ca="1"/>
+        <v>44958</v>
+      </c>
+      <c r="H50">
+        <f ca="1"/>
+        <v>44985</v>
+      </c>
+      <c r="I50">
+        <f ca="1"/>
+        <v>392.98</v>
+      </c>
+      <c r="J50">
+        <f ca="1"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F51" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="G51">
+        <f ca="1"/>
+        <v>44941</v>
+      </c>
+      <c r="H51">
+        <f ca="1"/>
+        <v>44957</v>
+      </c>
+      <c r="I51">
+        <f ca="1"/>
+        <v>121.13</v>
+      </c>
+      <c r="J51">
+        <f ca="1"/>
+        <v>121.13</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F52" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="G52">
+        <f ca="1"/>
+        <v>44958</v>
+      </c>
+      <c r="H52">
+        <f ca="1"/>
+        <v>44985</v>
+      </c>
+      <c r="I52">
+        <f ca="1"/>
+        <v>199.5</v>
+      </c>
+      <c r="J52">
+        <f ca="1"/>
+        <v>320.63</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F53" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="G53">
+        <f ca="1"/>
+        <v>44986</v>
+      </c>
+      <c r="H53">
+        <f ca="1"/>
+        <v>45016</v>
+      </c>
+      <c r="I53">
+        <f ca="1"/>
+        <v>220.88</v>
+      </c>
+      <c r="J53">
+        <f ca="1"/>
+        <v>541.5</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F54" t="str">
+        <f ca="1"/>
+        <v>B</v>
+      </c>
+      <c r="G54">
+        <f ca="1"/>
+        <v>45017</v>
+      </c>
+      <c r="H54">
+        <f ca="1"/>
+        <v>45036</v>
+      </c>
+      <c r="I54">
+        <f ca="1"/>
+        <v>142.5</v>
+      </c>
+      <c r="J54">
+        <f ca="1"/>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F55" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="G55">
+        <f ca="1"/>
+        <v>44960</v>
+      </c>
+      <c r="H55">
+        <f ca="1"/>
+        <v>44985</v>
+      </c>
+      <c r="I55">
+        <f ca="1"/>
+        <v>197.29</v>
+      </c>
+      <c r="J55">
+        <f ca="1"/>
+        <v>197.29</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F56" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="G56">
+        <f ca="1"/>
+        <v>44986</v>
+      </c>
+      <c r="H56">
+        <f ca="1"/>
+        <v>45016</v>
+      </c>
+      <c r="I56">
+        <f ca="1"/>
+        <v>235.24</v>
+      </c>
+      <c r="J56">
+        <f ca="1"/>
+        <v>432.53</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F57" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="G57">
+        <f ca="1"/>
+        <v>45017</v>
+      </c>
+      <c r="H57">
+        <f ca="1"/>
+        <v>45046</v>
+      </c>
+      <c r="I57">
+        <f ca="1"/>
+        <v>227.65</v>
+      </c>
+      <c r="J57">
+        <f ca="1"/>
+        <v>660.18</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F58" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="G58">
+        <f ca="1"/>
+        <v>45047</v>
+      </c>
+      <c r="H58">
+        <f ca="1"/>
+        <v>45077</v>
+      </c>
+      <c r="I58">
+        <f ca="1"/>
+        <v>235.24</v>
+      </c>
+      <c r="J58">
+        <f ca="1"/>
+        <v>895.41</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F59" t="str">
+        <f ca="1"/>
+        <v>C</v>
+      </c>
+      <c r="G59">
+        <f ca="1"/>
+        <v>45078</v>
+      </c>
+      <c r="H59">
+        <f ca="1"/>
+        <v>45078</v>
+      </c>
+      <c r="I59">
+        <f ca="1"/>
+        <v>7.59</v>
+      </c>
+      <c r="J59">
+        <f ca="1"/>
+        <v>903</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F60" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G60">
+        <f ca="1"/>
+        <v>45167</v>
+      </c>
+      <c r="H60">
+        <f ca="1"/>
+        <v>45169</v>
+      </c>
+      <c r="I60">
+        <f ca="1"/>
+        <v>16.11</v>
+      </c>
+      <c r="J60">
+        <f ca="1"/>
+        <v>16.11</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F61" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G61">
+        <f ca="1"/>
+        <v>45170</v>
+      </c>
+      <c r="H61">
+        <f ca="1"/>
+        <v>45199</v>
+      </c>
+      <c r="I61">
+        <f ca="1"/>
+        <v>161.12</v>
+      </c>
+      <c r="J61">
+        <f ca="1"/>
+        <v>177.23</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F62" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G62">
+        <f ca="1"/>
+        <v>45200</v>
+      </c>
+      <c r="H62">
+        <f ca="1"/>
+        <v>45230</v>
+      </c>
+      <c r="I62">
+        <f ca="1"/>
+        <v>166.49</v>
+      </c>
+      <c r="J62">
+        <f ca="1"/>
+        <v>343.72</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F63" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G63">
+        <f ca="1"/>
+        <v>45231</v>
+      </c>
+      <c r="H63">
+        <f ca="1"/>
+        <v>45260</v>
+      </c>
+      <c r="I63">
+        <f ca="1"/>
+        <v>161.12</v>
+      </c>
+      <c r="J63">
+        <f ca="1"/>
+        <v>504.83</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F64" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G64">
+        <f ca="1"/>
+        <v>45261</v>
+      </c>
+      <c r="H64">
+        <f ca="1"/>
+        <v>45291</v>
+      </c>
+      <c r="I64">
+        <f ca="1"/>
+        <v>166.49</v>
+      </c>
+      <c r="J64">
+        <f ca="1"/>
+        <v>671.32</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F65" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G65">
+        <f ca="1"/>
+        <v>45292</v>
+      </c>
+      <c r="H65">
+        <f ca="1"/>
+        <v>45322</v>
+      </c>
+      <c r="I65">
+        <f ca="1"/>
+        <v>166.49</v>
+      </c>
+      <c r="J65">
+        <f ca="1"/>
+        <v>837.81</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F66" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G66">
+        <f ca="1"/>
+        <v>45323</v>
+      </c>
+      <c r="H66">
+        <f ca="1"/>
+        <v>45351</v>
+      </c>
+      <c r="I66">
+        <f ca="1"/>
+        <v>155.75</v>
+      </c>
+      <c r="J66">
+        <f ca="1"/>
+        <v>993.55</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F67" t="str">
+        <f ca="1"/>
+        <v>D</v>
+      </c>
+      <c r="G67">
+        <f ca="1"/>
+        <v>45352</v>
+      </c>
+      <c r="H67">
+        <f ca="1"/>
+        <v>45363</v>
+      </c>
+      <c r="I67">
+        <f ca="1"/>
+        <v>64.45</v>
+      </c>
+      <c r="J67">
+        <f ca="1"/>
+        <v>1058</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
